--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Tidsrapport v 14</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Målet med denna iteration är att söka efter grundläggande information om vilka tekniker och språk som används för att skapa en Androidapplikation, och börja testa och försöka lära mig.</t>
+  </si>
+  <si>
+    <t>Total projekttid</t>
   </si>
 </sst>
 </file>
@@ -131,15 +134,15 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,33 +445,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D23"/>
+  <dimension ref="A3:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -526,78 +530,78 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
         <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -605,34 +609,47 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Tidsrapport v 14</t>
   </si>
@@ -85,14 +85,40 @@
   </si>
   <si>
     <t>Total projekttid</t>
+  </si>
+  <si>
+    <t>Klar</t>
+  </si>
+  <si>
+    <t>Skapa testikon till min "Hello World"-applikation</t>
+  </si>
+  <si>
+    <t>Skapa "Hello World"-applikation</t>
+  </si>
+  <si>
+    <t>Ej påbörjat</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Bestämde mig ganska snabbt att börja använda Eclipse.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -144,6 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,20 +472,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D25"/>
+  <dimension ref="A3:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -466,7 +495,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -474,18 +503,18 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -496,7 +525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -507,7 +536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -518,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -529,7 +558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -537,7 +566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -545,7 +574,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -553,7 +582,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -561,86 +590,147 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
       <c r="C18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="C19">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="C20">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
+      <c r="B23" t="s">
+        <v>26</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="C26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -652,6 +742,7 @@
     <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -161,6 +161,7 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -170,7 +171,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,29 +488,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -575,35 +575,35 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -685,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">

--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>Tidsrapport v 14</t>
   </si>
@@ -103,6 +103,51 @@
   </si>
   <si>
     <t>Bestämde mig ganska snabbt att börja använda Eclipse.</t>
+  </si>
+  <si>
+    <t>Valde att försöka sätta mig in i Eclipse lite innan jag fortsätter med prototypen.</t>
+  </si>
+  <si>
+    <t>Tid sedan föregående iteration</t>
+  </si>
+  <si>
+    <t>Iterationsplan Iteration 1</t>
+  </si>
+  <si>
+    <t>Målet med denna iteration är att skapa en enkelt testapplikation genom att följa en stegvis beskrivning. Jag vill även kunna få Eclipse att fungera tillsammans med min Android-mobil vilket jag inte lyckats med ännu, så jag ska se om det är möjligt.</t>
+  </si>
+  <si>
+    <t>Handledarmöte</t>
+  </si>
+  <si>
+    <t>Ej påbörjad</t>
+  </si>
+  <si>
+    <t>Finslipning av vision</t>
+  </si>
+  <si>
+    <t>Påbörja testspecifikation och testfall</t>
+  </si>
+  <si>
+    <t>Systemtest och testrapport</t>
+  </si>
+  <si>
+    <t>Fortsätta arbeta med testapplikationen</t>
+  </si>
+  <si>
+    <t>Skapa iterationsplan för Iteration 2</t>
+  </si>
+  <si>
+    <t>Försöka få Eclipse att fungera med min mobil</t>
+  </si>
+  <si>
+    <t>Analys av föregående iteration</t>
+  </si>
+  <si>
+    <t>Har skapat en "Hello World"-app och med många om och men lyckats få en emulator att fungera som jag kan köra appen i. Försökte få det att fungera med min egen mobil men efter många försök så bestämde jag mig att köra emulator tills vidare. Fokuserade mest på att börja lära mig grunderna i Eclipse före att designa prototypen.</t>
+  </si>
+  <si>
+    <t>Iterationsplan as223jx</t>
   </si>
 </sst>
 </file>
@@ -126,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +190,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -158,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -169,6 +220,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -472,21 +526,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E27"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
@@ -494,6 +553,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -502,6 +562,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -581,8 +642,9 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -612,9 +674,12 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
     </row>
@@ -623,10 +688,13 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -662,7 +730,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -679,13 +747,13 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -698,15 +766,24 @@
       <c r="C23">
         <v>2</v>
       </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>1</v>
       </c>
     </row>
@@ -715,31 +792,225 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>15</v>
+      <c r="D25">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D29">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Iteration 0" sheetId="1" r:id="rId1"/>
+    <sheet name="Iteration 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>Tidsrapport v 14</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Iterationsplan as223jx</t>
+  </si>
+  <si>
+    <t>Designa prototyp</t>
   </si>
 </sst>
 </file>
@@ -209,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -219,12 +222,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,13 +552,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -829,188 +834,62 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50">
-        <v>240</v>
-      </c>
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A32:E32"/>
+  <mergeCells count="4">
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1019,12 +898,210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>Tidsrapport v 14</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Finslipning av vision</t>
   </si>
   <si>
-    <t>Påbörja testspecifikation och testfall</t>
-  </si>
-  <si>
     <t>Systemtest och testrapport</t>
   </si>
   <si>
@@ -150,7 +147,19 @@
     <t>Iterationsplan as223jx</t>
   </si>
   <si>
-    <t>Designa prototyp</t>
+    <t>Skapa persona</t>
+  </si>
+  <si>
+    <t>Designa prototyper</t>
+  </si>
+  <si>
+    <t>Påbörjad</t>
+  </si>
+  <si>
+    <t>Skriv testspecifikation och testfall för F1-F4</t>
+  </si>
+  <si>
+    <t>Finslipning av krav</t>
   </si>
 </sst>
 </file>
@@ -216,20 +225,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,7 +557,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -561,13 +570,13 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -641,21 +650,21 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -834,39 +843,39 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -876,13 +885,13 @@
       <c r="E38" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
+      <c r="B48" s="4"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
+      <c r="B49" s="4"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
+      <c r="B50" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -898,10 +907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,47 +923,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -989,10 +998,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1003,94 +1012,128 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
       <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
       <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="C19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>240</v>
       </c>
     </row>

--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>Tidsrapport v 14</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Finslipning av vision</t>
   </si>
   <si>
-    <t>Systemtest och testrapport</t>
-  </si>
-  <si>
     <t>Fortsätta arbeta med testapplikationen</t>
   </si>
   <si>
@@ -160,6 +157,12 @@
   </si>
   <si>
     <t>Finslipning av krav</t>
+  </si>
+  <si>
+    <t>Testrapport</t>
+  </si>
+  <si>
+    <t>Skriv blackboxtester</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -907,10 +910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +936,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -942,7 +945,7 @@
     </row>
     <row r="3" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -987,7 +990,7 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -998,7 +1001,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1015,7 +1018,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1026,10 +1029,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1040,38 +1043,38 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
       <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -1088,52 +1091,66 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
       <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20">
-        <v>229</v>
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>240</v>
       </c>
     </row>

--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 0" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>Tidsrapport v 14</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Finslipning av vision</t>
   </si>
   <si>
-    <t>Fortsätta arbeta med testapplikationen</t>
-  </si>
-  <si>
     <t>Skapa iterationsplan för Iteration 2</t>
   </si>
   <si>
@@ -163,6 +160,39 @@
   </si>
   <si>
     <t>Skriv blackboxtester</t>
+  </si>
+  <si>
+    <t>Fixa textruta och action bar på testapplikationen</t>
+  </si>
+  <si>
+    <t>Iterationsplan Iteration 2</t>
+  </si>
+  <si>
+    <t>Jobbat med prototyp och persona, samt börjat implementera textfält, knappar och action bar i min testapplikation</t>
+  </si>
+  <si>
+    <t>Målet med denna iteration är att börja implementera grundläggande funktioner i min egen applikation.</t>
+  </si>
+  <si>
+    <t>Skapa sökruta</t>
+  </si>
+  <si>
+    <t>Skapa nytt projekt i Eclipse för min app</t>
+  </si>
+  <si>
+    <t>Skapa "Nytt recept"-knapp som öppnar ny sida</t>
+  </si>
+  <si>
+    <t>Planera färgtema &amp; bakgrund</t>
+  </si>
+  <si>
+    <t>Designa ikon till appen</t>
+  </si>
+  <si>
+    <t>Skapa textfälten samt sparaknapp i "Nytt recept"-sidan</t>
+  </si>
+  <si>
+    <t>Skapa Iterationsplan för Iteration 3</t>
   </si>
 </sst>
 </file>
@@ -224,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -241,6 +271,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +593,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -912,13 +945,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
@@ -936,7 +969,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -945,7 +978,7 @@
     </row>
     <row r="3" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1001,7 +1034,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1029,7 +1062,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1043,7 +1076,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1057,7 +1090,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -1065,24 +1098,27 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -1096,7 +1132,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -1110,7 +1146,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -1118,16 +1154,22 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18">
         <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1137,13 +1179,16 @@
       <c r="C20">
         <v>16</v>
       </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D21">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1168,12 +1213,213 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>Tidsrapport v 14</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Målet med denna iteration är att börja implementera grundläggande funktioner i min egen applikation.</t>
   </si>
   <si>
-    <t>Skapa sökruta</t>
-  </si>
-  <si>
     <t>Skapa nytt projekt i Eclipse för min app</t>
   </si>
   <si>
@@ -193,6 +190,12 @@
   </si>
   <si>
     <t>Skapa Iterationsplan för Iteration 3</t>
+  </si>
+  <si>
+    <t>Skapa sökruta på startsidan</t>
+  </si>
+  <si>
+    <t>Gör så "Spara"-knappen skickar och visar fältens information till ny sida</t>
   </si>
 </sst>
 </file>
@@ -946,7 +949,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1152,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1163,7 +1166,7 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1216,12 +1219,12 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
@@ -1302,35 +1305,44 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1346,7 +1358,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -1357,7 +1369,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -1368,7 +1380,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -1379,16 +1391,19 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1396,15 +1411,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D18">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>

--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>Tidsrapport v 14</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Skapa "Nytt recept"-knapp som öppnar ny sida</t>
   </si>
   <si>
-    <t>Planera färgtema &amp; bakgrund</t>
-  </si>
-  <si>
     <t>Designa ikon till appen</t>
   </si>
   <si>
@@ -196,6 +193,24 @@
   </si>
   <si>
     <t>Gör så "Spara"-knappen skickar och visar fältens information till ny sida</t>
+  </si>
+  <si>
+    <t>Krav</t>
+  </si>
+  <si>
+    <t>Gör en exempeldesign i Illustrator</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>BK 3</t>
+  </si>
+  <si>
+    <t>F1/F2</t>
   </si>
 </sst>
 </file>
@@ -276,7 +291,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,22 +1231,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>49</v>
       </c>
@@ -1239,8 +1255,9 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -1248,17 +1265,19 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1266,172 +1285,211 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="D18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>240</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 0" sheetId="1" r:id="rId1"/>
     <sheet name="Iteration 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Iteration 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Iteration 3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
   <si>
     <t>Tidsrapport v 14</t>
   </si>
@@ -192,15 +193,9 @@
     <t>Skapa sökruta på startsidan</t>
   </si>
   <si>
-    <t>Gör så "Spara"-knappen skickar och visar fältens information till ny sida</t>
-  </si>
-  <si>
     <t>Krav</t>
   </si>
   <si>
-    <t>Gör en exempeldesign i Illustrator</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -211,6 +206,39 @@
   </si>
   <si>
     <t>F1/F2</t>
+  </si>
+  <si>
+    <t>Skapa dropdownlista för enheterna</t>
+  </si>
+  <si>
+    <t>Målet med denna Iteration är att jobba vidare med appen och förhoppningsvis bli klar med "Skapa recept"-sidan.</t>
+  </si>
+  <si>
+    <t>Göra klart dropdownen för enheter i Nytt Recept.</t>
+  </si>
+  <si>
+    <t>Skicka vidare infon från textfälten till ny "Visa Recept"-sida</t>
+  </si>
+  <si>
+    <t>Läs "Saving Data in SQL Databases" på Androids developersida.</t>
+  </si>
+  <si>
+    <t>Skapa Iterationsplan för Iteration 4</t>
+  </si>
+  <si>
+    <t>Gör en exempeldesign för startsidan i Illustrator</t>
+  </si>
+  <si>
+    <t>Gör exempeldesign för "Nytt recept"-sidan i Illustrator</t>
+  </si>
+  <si>
+    <t>Strukturera upp "Visa Recept"-sidan</t>
+  </si>
+  <si>
+    <t>Börjat jobba med min egen applikation. Insåg att dropdownlistan krånglade lite mer än jag förväntade mig, så det blir nog en del till tid för den.</t>
+  </si>
+  <si>
+    <t>F1-F4</t>
   </si>
 </sst>
 </file>
@@ -1233,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1272,7 @@
     <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1299,7 +1327,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -1347,7 +1375,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -1364,7 +1392,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -1389,10 +1417,13 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
@@ -1403,81 +1434,99 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D18">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>240</v>
       </c>
     </row>
@@ -1492,4 +1541,228 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 0" sheetId="1" r:id="rId1"/>
     <sheet name="Iteration 1" sheetId="2" r:id="rId2"/>
     <sheet name="Iteration 2" sheetId="3" r:id="rId3"/>
     <sheet name="Iteration 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="91">
   <si>
     <t>Tidsrapport v 14</t>
   </si>
@@ -239,6 +240,57 @@
   </si>
   <si>
     <t>F1-F4</t>
+  </si>
+  <si>
+    <t>Gör så plusknappen skapar ny rad för ytterligare ingrediens</t>
+  </si>
+  <si>
+    <t>Skapa klickbar länk till sparat recept som visar receptet</t>
+  </si>
+  <si>
+    <t>Fixa så spinnern i nya ingrediensraderna fungerar</t>
+  </si>
+  <si>
+    <t>Skapa Iterationsplan för Iteration 5</t>
+  </si>
+  <si>
+    <t>Iterationsplan Iteration 4</t>
+  </si>
+  <si>
+    <t>Iterationsplan Iteration 3</t>
+  </si>
+  <si>
+    <t>Fixat så nya ingrediensrader dyker upp när man klickar på pluset. Även löst en bugg med min spinner/dropdownlista, men den funkar ännu inte i de nya ingrediensraderna.</t>
+  </si>
+  <si>
+    <t>Målet med denna iteration är att kunna spara recepten lokalt och att kunna visa dem.</t>
+  </si>
+  <si>
+    <t>Fixa så man kan spara lokalt</t>
+  </si>
+  <si>
+    <t>Gör så nya ingrediensradernas info också skickas vidare och sparas</t>
+  </si>
+  <si>
+    <t>Gör så spinnerns värde skickar vidare och sparas</t>
+  </si>
+  <si>
+    <t>Gör så man kan redigera ett existerande recept</t>
+  </si>
+  <si>
+    <t>Tester och testrapport</t>
+  </si>
+  <si>
+    <t>Fixa så texterna "Ingrediens" och "Antal" hamnar under nya ingrediensrader</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>BK3</t>
+  </si>
+  <si>
+    <t>Läs tutorial om att spara lokalt</t>
   </si>
 </sst>
 </file>
@@ -1545,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,7 +1615,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1636,9 +1688,12 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
     </row>
@@ -1650,10 +1705,13 @@
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1664,10 +1722,284 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>4</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1675,13 +2007,16 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1689,21 +2024,21 @@
         <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -1713,45 +2048,87 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+      <c r="D19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E18">
+      <c r="E21">
         <v>240</v>
       </c>
     </row>

--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -11,14 +11,15 @@
     <sheet name="Iteration 1" sheetId="2" r:id="rId2"/>
     <sheet name="Iteration 2" sheetId="3" r:id="rId3"/>
     <sheet name="Iteration 3" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Iteration 4" sheetId="5" r:id="rId5"/>
+    <sheet name="Iteration 5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="105">
   <si>
     <t>Tidsrapport v 14</t>
   </si>
@@ -266,9 +267,6 @@
     <t>Målet med denna iteration är att kunna spara recepten lokalt och att kunna visa dem.</t>
   </si>
   <si>
-    <t>Fixa så man kan spara lokalt</t>
-  </si>
-  <si>
     <t>Gör så nya ingrediensradernas info också skickas vidare och sparas</t>
   </si>
   <si>
@@ -291,6 +289,51 @@
   </si>
   <si>
     <t>Läs tutorial om att spara lokalt</t>
+  </si>
+  <si>
+    <t>Fixa så man kan spara hela recepten lokalt</t>
+  </si>
+  <si>
+    <t>Gör så recepten kan läsas in från startsidan</t>
+  </si>
+  <si>
+    <t>Mejla förra veckans jobb</t>
+  </si>
+  <si>
+    <t>Gör så man kan radera ett recept</t>
+  </si>
+  <si>
+    <t>Fixa scrollbars när texten fyller ut mer än hela sidora</t>
+  </si>
+  <si>
+    <t>Fixa hur filnamnen ska utformas med mellanslag i receptets namn</t>
+  </si>
+  <si>
+    <t>Gör så det inte är möjligt att spara ett recept om namnet redan finns</t>
+  </si>
+  <si>
+    <t>Gör så receptnamnen på framsidan visas utan ".txt" samt med stor bokstav</t>
+  </si>
+  <si>
+    <t>Justera och testa maxbredd och höjd på alla fält</t>
+  </si>
+  <si>
+    <t>Gör så "Ingrediens" och "Antal"-texten visas under nya ingrediensraderna</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>BK1</t>
+  </si>
+  <si>
+    <t>Kan nu spara recept, visa alla existerande recept i en lista, samt öppna receptet och få det utskrivet.</t>
+  </si>
+  <si>
+    <t>Målet med denna iteration är att bli klar med alla grundfunktionaliteter, dvs har jag kvar att fixa så det går att redigera och radera recept. Efter det ska jag börja fixa med småbuggar, användarvänlighet och testing.</t>
+  </si>
+  <si>
+    <t>Iterationsplan Iteration 5</t>
   </si>
 </sst>
 </file>
@@ -1868,10 +1911,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,16 +2016,16 @@
         <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1990,16 +2033,16 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2007,30 +2050,33 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2038,13 +2084,16 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2055,10 +2104,317 @@
         <v>83</v>
       </c>
       <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
       </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,69 +2422,69 @@
         <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>240</v>
       </c>
     </row>

--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 0" sheetId="1" r:id="rId1"/>
@@ -1913,7 +1913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -2235,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2346,6 +2346,9 @@
       <c r="D9">
         <v>10</v>
       </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">

--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 0" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="Iteration 3" sheetId="4" r:id="rId4"/>
     <sheet name="Iteration 4" sheetId="5" r:id="rId5"/>
     <sheet name="Iteration 5" sheetId="6" r:id="rId6"/>
+    <sheet name="Iteration 6" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="129">
   <si>
     <t>Tidsrapport v 14</t>
   </si>
@@ -318,9 +320,6 @@
     <t>Justera och testa maxbredd och höjd på alla fält</t>
   </si>
   <si>
-    <t>Gör så "Ingrediens" och "Antal"-texten visas under nya ingrediensraderna</t>
-  </si>
-  <si>
     <t>F3</t>
   </si>
   <si>
@@ -334,6 +333,81 @@
   </si>
   <si>
     <t>Iterationsplan Iteration 5</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>Skapa Iterationsplan för Iteration 6</t>
+  </si>
+  <si>
+    <t>Handledningsmöte</t>
+  </si>
+  <si>
+    <t>Gör klart så infon läggs rätt i Redigera Recept</t>
+  </si>
+  <si>
+    <t>Skapa Iterationsplan för Iteration 7</t>
+  </si>
+  <si>
+    <t>Iterationsplan Iteration 6</t>
+  </si>
+  <si>
+    <t>Fixa så spinnersen har rätt defaultvärde i Redigera Recept</t>
+  </si>
+  <si>
+    <t>Finslipa testspecifikationen</t>
+  </si>
+  <si>
+    <t>Lägg till "Redigera" och "Ta bort"-knappar i Visa Recept</t>
+  </si>
+  <si>
+    <t>F3/F4</t>
+  </si>
+  <si>
+    <t>Jobbat med att kunna redigera recept, delar ut infon från receptet i korrekta redigeringsbara textrutor.</t>
+  </si>
+  <si>
+    <t>Målet med denna iteration är att fixa klart så all info i Redigera Recept hamnar rätt, samt börja med hantering av inmatning, scrollbars, textfält.</t>
+  </si>
+  <si>
+    <t>Iterationsplan Iteration 7</t>
+  </si>
+  <si>
+    <t>Fortsatt (och fastnat) med att lägga ut infon i rätt rutor med rätt värden i Redigera Recept. Får inte till dropdown-rutorna.</t>
+  </si>
+  <si>
+    <t>Fixa så de nya aktiviteterna ej hamnar uppepå varandra vid radering.</t>
+  </si>
+  <si>
+    <t>Uppdatera MainActivity då ett nytt recept har skapats.</t>
+  </si>
+  <si>
+    <t>Testa navigera mellan alla olika aktiviteter och se till att inga problem finns kvar med detta.</t>
+  </si>
+  <si>
+    <t>Fixa att om man ändrar namn i Redigera Recept ska den gamla filen tas bort och en ny sparas med nya namnet.</t>
+  </si>
+  <si>
+    <t>Skapa Iterationsplan för Iteration 8</t>
+  </si>
+  <si>
+    <t>Fixa så nya receptradernas "Antal"-textfält har siffror som standardinmatning.</t>
+  </si>
+  <si>
+    <t>Fixa så receptet inte sparas om inte alla ingrediensrader är korrekt ifyllda.</t>
+  </si>
+  <si>
+    <t>Fixa så om man lämnar en receptrad helt tom ska det ändå gå att spara receptet. (Raden ignoreras)</t>
+  </si>
+  <si>
+    <t>Gör så det går att spara med samma namn som receptet som redigeras, men inte andra existerande receptnamn</t>
+  </si>
+  <si>
+    <t>Skapa bekräftelsepopupruta vid radering av recept.</t>
+  </si>
+  <si>
+    <t>Ändra grundfärgerna på knappar och bakgrund.</t>
   </si>
 </sst>
 </file>
@@ -395,12 +469,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -738,22 +815,22 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -827,21 +904,21 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1100,47 +1177,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1371,54 +1448,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1657,54 +1734,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1928,54 +2005,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2235,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,54 +2327,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2341,18 +2418,18 @@
         <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>93</v>
@@ -2363,24 +2440,30 @@
       <c r="D10">
         <v>5</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
         <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
         <v>94</v>
@@ -2390,6 +2473,9 @@
       </c>
       <c r="D12">
         <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2400,9 +2486,12 @@
         <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
         <v>3</v>
       </c>
     </row>
@@ -2414,9 +2503,12 @@
         <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
     </row>
@@ -2428,34 +2520,40 @@
         <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>88</v>
-      </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
     </row>
@@ -2464,10 +2562,13 @@
         <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>4</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -2475,19 +2576,583 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="E20">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E21">
+        <v>121</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E22">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
         <v>240</v>
       </c>
     </row>

--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="130">
   <si>
     <t>Tidsrapport v 14</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>Ändra grundfärgerna på knappar och bakgrund.</t>
+  </si>
+  <si>
+    <t>Hantera "Upp"-knappen i headern</t>
   </si>
 </sst>
 </file>
@@ -2897,10 +2900,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2999,160 +3002,206 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>85</v>
+        <v>127</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>122</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>6</v>
+      <c r="C22" t="s">
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <v>240</v>
       </c>
     </row>

--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="131">
   <si>
     <t>Tidsrapport v 14</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>Hantera "Upp"-knappen i headern</t>
+  </si>
+  <si>
+    <t>Gör powerpointpresentationen</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1440,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2618,7 +2621,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2900,10 +2903,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3153,10 +3156,13 @@
         <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>5</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -3184,24 +3190,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>38</v>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>38</v>
+      </c>
+      <c r="E25">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>240</v>
       </c>
     </row>

--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 0" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="Iteration 4" sheetId="5" r:id="rId5"/>
     <sheet name="Iteration 5" sheetId="6" r:id="rId6"/>
     <sheet name="Iteration 6" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="Iteration 7" sheetId="8" r:id="rId8"/>
+    <sheet name="Iteration 8" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="145">
   <si>
     <t>Tidsrapport v 14</t>
   </si>
@@ -389,9 +390,6 @@
     <t>Fixa att om man ändrar namn i Redigera Recept ska den gamla filen tas bort och en ny sparas med nya namnet.</t>
   </si>
   <si>
-    <t>Skapa Iterationsplan för Iteration 8</t>
-  </si>
-  <si>
     <t>Fixa så nya receptradernas "Antal"-textfält har siffror som standardinmatning.</t>
   </si>
   <si>
@@ -414,6 +412,51 @@
   </si>
   <si>
     <t>Gör powerpointpresentationen</t>
+  </si>
+  <si>
+    <t>Iterationsplan Iteration 8</t>
+  </si>
+  <si>
+    <t>Lyckats fixa allt med mina spinner/dropdown-fält, och alla grundfuktioner fungerar nästan helt som de ska. Börjat lite med att lägga in färger och fixa gränssnittet.</t>
+  </si>
+  <si>
+    <t>Målet med denna iteration är att bli färdig med alla slutinlämingar, redovisningar etc.</t>
+  </si>
+  <si>
+    <t>Presentation av applikationen</t>
+  </si>
+  <si>
+    <t>Skriva sammanfattning från Workshop III</t>
+  </si>
+  <si>
+    <t>Post Mortem</t>
+  </si>
+  <si>
+    <t>Ladda upp Projektmappen och .apk-filen till reprot, samt testa om .apk-filen funkar</t>
+  </si>
+  <si>
+    <t>Fyll i formuläter för slutleverans och självvärdering</t>
+  </si>
+  <si>
+    <t>Fixa så man kan lämna en tom ingrediensrad</t>
+  </si>
+  <si>
+    <t>Fixa så designen i "Redigera recept" matchar designen i "Nytt recept"</t>
+  </si>
+  <si>
+    <t>Ladda upp videodemostrationen</t>
+  </si>
+  <si>
+    <t>Gör klart sidan för slutuppgiften i Gränssnittsutveckling</t>
+  </si>
+  <si>
+    <t>Spela in videodemonstration</t>
+  </si>
+  <si>
+    <t>Fixa grundläggande färger i appens startsida samt "Visa recept"-sidan</t>
+  </si>
+  <si>
+    <t>Skapa en bekräftelseruta innan ett recept raderas</t>
   </si>
 </sst>
 </file>
@@ -2836,7 +2879,7 @@
         <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -2903,10 +2946,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="A1:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3061,7 +3104,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -3070,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3089,7 +3132,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -3103,7 +3146,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -3117,13 +3160,16 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
       </c>
       <c r="D17">
         <v>4</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -3142,7 +3188,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -3150,10 +3196,13 @@
       <c r="D19">
         <v>1</v>
       </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -3162,7 +3211,7 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -3181,47 +3230,330 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E25">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E27">
+      <c r="E24">
         <v>240</v>
       </c>
     </row>

--- a/Iterationsplan_as223jx.xlsx
+++ b/Iterationsplan_as223jx.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="146">
   <si>
     <t>Tidsrapport v 14</t>
   </si>
@@ -444,19 +444,22 @@
     <t>Fixa så designen i "Redigera recept" matchar designen i "Nytt recept"</t>
   </si>
   <si>
-    <t>Ladda upp videodemostrationen</t>
-  </si>
-  <si>
     <t>Gör klart sidan för slutuppgiften i Gränssnittsutveckling</t>
   </si>
   <si>
-    <t>Spela in videodemonstration</t>
-  </si>
-  <si>
     <t>Fixa grundläggande färger i appens startsida samt "Visa recept"-sidan</t>
   </si>
   <si>
     <t>Skapa en bekräftelseruta innan ett recept raderas</t>
+  </si>
+  <si>
+    <t>Spela in &amp; redigera videodemonstration</t>
+  </si>
+  <si>
+    <t>Ladda upp videodemostrationen och länka till den i slutuppgiften</t>
+  </si>
+  <si>
+    <t>Gör klart samlingssidan</t>
   </si>
 </sst>
 </file>
@@ -3280,10 +3283,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3424,7 +3427,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -3452,23 +3455,29 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
     </row>
@@ -3477,7 +3486,7 @@
         <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -3488,16 +3497,16 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -3505,55 +3514,72 @@
         <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>137</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>30</v>
+      <c r="D21">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>240</v>
       </c>
     </row>
